--- a/config/ItemConfig.xlsx
+++ b/config/ItemConfig.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065"/>
+    <workbookView windowWidth="27735" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153">
   <si>
     <t xml:space="preserve">ID: </t>
   </si>
@@ -33,6 +33,18 @@
     <t>星级</t>
   </si>
   <si>
+    <t>道具叠加类型1.叠加；2.不叠加</t>
+  </si>
+  <si>
+    <t>资产价值</t>
+  </si>
+  <si>
+    <t>icon边框背景图</t>
+  </si>
+  <si>
+    <t>icon缩放比</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -48,12 +60,27 @@
     <t>star</t>
   </si>
   <si>
+    <t>addType</t>
+  </si>
+  <si>
+    <t>worthPrice</t>
+  </si>
+  <si>
+    <t>iconframe</t>
+  </si>
+  <si>
+    <t>iconScale</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>钻石</t>
   </si>
   <si>
@@ -63,6 +90,9 @@
     <t>0</t>
   </si>
   <si>
+    <t>common_icon_tx_png</t>
+  </si>
+  <si>
     <t>货币</t>
   </si>
   <si>
@@ -72,6 +102,24 @@
     <t>经验</t>
   </si>
   <si>
+    <t>地皮</t>
+  </si>
+  <si>
+    <t>房产</t>
+  </si>
+  <si>
+    <t>车库</t>
+  </si>
+  <si>
+    <t>车位</t>
+  </si>
+  <si>
+    <t>港口</t>
+  </si>
+  <si>
+    <t>泊位</t>
+  </si>
+  <si>
     <t>男头像</t>
   </si>
   <si>
@@ -387,6 +435,12 @@
     <t>icon_house_0002_png</t>
   </si>
   <si>
+    <t>现代缘墅</t>
+  </si>
+  <si>
+    <t>icon_house_0003_png</t>
+  </si>
+  <si>
     <t>One：1</t>
   </si>
   <si>
@@ -399,6 +453,12 @@
     <t>icon_car_0002_png</t>
   </si>
   <si>
+    <t>甲壳虫</t>
+  </si>
+  <si>
+    <t>icon_car_0003_png</t>
+  </si>
+  <si>
     <t>Ferretti 800</t>
   </si>
   <si>
@@ -409,6 +469,12 @@
   </si>
   <si>
     <t>icon_ship_0002_png</t>
+  </si>
+  <si>
+    <t>Key Largo One</t>
+  </si>
+  <si>
+    <t>icon_ship_0003_png</t>
   </si>
 </sst>
 </file>
@@ -435,8 +501,85 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Helvetica"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -464,6 +607,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica"/>
@@ -471,64 +630,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -543,44 +647,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,7 +667,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,19 +703,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,13 +727,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,19 +775,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,85 +805,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,7 +823,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,11 +876,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -836,10 +928,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -878,32 +968,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -912,148 +978,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2281,12 +2347,12 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:IT71"/>
+  <dimension ref="A1:IU71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G61" sqref="G61"/>
+      <selection pane="bottomLeft" activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -2295,13 +2361,15 @@
     <col min="2" max="2" width="17.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="25" style="3" customWidth="1"/>
     <col min="4" max="5" width="21.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="32.75" style="3" customWidth="1"/>
-    <col min="7" max="7" width="19.875" style="3" customWidth="1"/>
-    <col min="8" max="254" width="9" style="3" customWidth="1"/>
-    <col min="255" max="16384" width="9" style="4"/>
+    <col min="6" max="6" width="27.125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="27.75" style="3" customWidth="1"/>
+    <col min="9" max="9" width="17" style="3" customWidth="1"/>
+    <col min="10" max="10" width="20.625" style="3" customWidth="1"/>
+    <col min="11" max="255" width="9" style="3" customWidth="1"/>
+    <col min="256" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" spans="1:5">
+    <row r="1" ht="24" spans="1:9">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2317,1433 +2385,2246 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" ht="15.95" customHeight="1" spans="1:5">
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="15.95" customHeight="1" spans="1:9">
       <c r="A2" s="6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" ht="15.95" customHeight="1" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" ht="15.95" customHeight="1" spans="1:9">
       <c r="A3" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" ht="15.95" customHeight="1" spans="1:5">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" ht="15.95" customHeight="1" spans="1:9">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" ht="15.95" customHeight="1" spans="1:5">
+        <v>23</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" ht="15.95" customHeight="1" spans="1:9">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" ht="15.95" customHeight="1" spans="1:5">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" ht="15.95" customHeight="1" spans="1:9">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" ht="15.95" customHeight="1" spans="1:5">
+        <v>23</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" ht="15.95" customHeight="1" spans="1:9">
       <c r="A7" s="3">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="D7" s="6"/>
       <c r="E7" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" ht="15.95" customHeight="1" spans="1:5">
+        <v>23</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" ht="15.95" customHeight="1" spans="1:9">
       <c r="A8" s="3">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" ht="15.95" customHeight="1" spans="1:5">
+        <v>23</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" ht="15.95" customHeight="1" spans="1:9">
       <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" ht="15.95" customHeight="1" spans="1:9">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" ht="15.95" customHeight="1" spans="1:9">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" ht="15.95" customHeight="1" spans="1:9">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" ht="15.95" customHeight="1" spans="1:9">
+      <c r="A13" s="3">
+        <v>100</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="14" ht="15.95" customHeight="1" spans="1:9">
+      <c r="A14" s="3">
+        <v>101</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" ht="15.95" customHeight="1" spans="1:9">
+      <c r="A15" s="3">
         <v>501</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="3">
-        <v>3</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A10" s="3">
+      <c r="B15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2</v>
+      </c>
+      <c r="G15" s="3">
+        <v>6996</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" ht="15.95" customHeight="1" spans="1:9">
+      <c r="A16" s="3">
         <v>502</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="3">
-        <v>3</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A11" s="3">
+      <c r="B16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3">
+        <v>19960</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="17" ht="15.95" customHeight="1" spans="1:9">
+      <c r="A17" s="3">
         <v>503</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="3">
-        <v>3</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A12" s="3">
+      <c r="B17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2</v>
+      </c>
+      <c r="G17" s="3">
+        <v>9328</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18" ht="15.95" customHeight="1" spans="1:9">
+      <c r="A18" s="3">
         <v>504</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="3">
-        <v>3</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A13" s="3">
+      <c r="B18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>53332</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" ht="15.95" customHeight="1" spans="1:9">
+      <c r="A19" s="3">
         <v>505</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="3">
-        <v>3</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A14" s="3">
+      <c r="B19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="3">
+        <v>3</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3">
+        <v>35752</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" ht="15.95" customHeight="1" spans="1:9">
+      <c r="A20" s="3">
         <v>1001</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="3">
-        <v>3</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A15" s="3">
+      <c r="B20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="3">
+        <v>3</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2</v>
+      </c>
+      <c r="G20" s="3">
+        <v>8632</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="21" ht="15.95" customHeight="1" spans="1:9">
+      <c r="A21" s="3">
         <v>1002</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="3">
-        <v>3</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" ht="15.95" customHeight="1" spans="1:5">
-      <c r="A16" s="3">
+      <c r="B21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2</v>
+      </c>
+      <c r="G21" s="3">
+        <v>15942</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="22" ht="15.95" customHeight="1" spans="1:9">
+      <c r="A22" s="3">
         <v>1003</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="3">
-        <v>3</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:5">
-      <c r="A17" s="3">
+      <c r="B22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2</v>
+      </c>
+      <c r="G22" s="3">
+        <v>21920</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:9">
+      <c r="A23" s="3">
         <v>1004</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="3">
-        <v>3</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="B23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="3">
+        <v>3</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:5">
-      <c r="A18" s="3">
+      <c r="F23" s="3">
+        <v>2</v>
+      </c>
+      <c r="G23" s="3">
+        <v>51018</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:9">
+      <c r="A24" s="3">
         <v>1005</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="3">
-        <v>3</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="B24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="3">
+        <v>3</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" ht="15.95" customHeight="1" spans="1:254">
-      <c r="A19" s="3">
+      <c r="F24" s="3">
+        <v>2</v>
+      </c>
+      <c r="G24" s="3">
+        <v>120000</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="25" ht="15.95" customHeight="1" spans="1:255">
+      <c r="A25" s="3">
         <v>1501</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="3">
-        <v>3</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="3">
-        <v>2</v>
-      </c>
-      <c r="IP19" s="4"/>
-      <c r="IQ19" s="4"/>
-      <c r="IR19" s="4"/>
-      <c r="IS19" s="4"/>
-      <c r="IT19" s="4"/>
-    </row>
-    <row r="20" ht="15.95" customHeight="1" spans="1:254">
-      <c r="A20" s="3">
-        <v>1502</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="3">
-        <v>3</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="3">
-        <v>3</v>
-      </c>
-      <c r="IP20" s="4"/>
-      <c r="IQ20" s="4"/>
-      <c r="IR20" s="4"/>
-      <c r="IS20" s="4"/>
-      <c r="IT20" s="4"/>
-    </row>
-    <row r="21" ht="15.95" customHeight="1" spans="1:254">
-      <c r="A21" s="3">
-        <v>1503</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="3">
-        <v>3</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="3">
-        <v>2</v>
-      </c>
-      <c r="IP21" s="4"/>
-      <c r="IQ21" s="4"/>
-      <c r="IR21" s="4"/>
-      <c r="IS21" s="4"/>
-      <c r="IT21" s="4"/>
-    </row>
-    <row r="22" ht="15.95" customHeight="1" spans="1:254">
-      <c r="A22" s="3">
-        <v>1504</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="3">
-        <v>3</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="3">
-        <v>3</v>
-      </c>
-      <c r="IP22" s="4"/>
-      <c r="IQ22" s="4"/>
-      <c r="IR22" s="4"/>
-      <c r="IS22" s="4"/>
-      <c r="IT22" s="4"/>
-    </row>
-    <row r="23" ht="15.95" customHeight="1" spans="1:254">
-      <c r="A23" s="3">
-        <v>1505</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="3">
-        <v>3</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="3">
-        <v>5</v>
-      </c>
-      <c r="IP23" s="4"/>
-      <c r="IQ23" s="4"/>
-      <c r="IR23" s="4"/>
-      <c r="IS23" s="4"/>
-      <c r="IT23" s="4"/>
-    </row>
-    <row r="24" ht="15.95" customHeight="1" spans="1:254">
-      <c r="A24" s="3">
-        <v>2001</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="3">
-        <v>3</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="IP24" s="4"/>
-      <c r="IQ24" s="4"/>
-      <c r="IR24" s="4"/>
-      <c r="IS24" s="4"/>
-      <c r="IT24" s="4"/>
-    </row>
-    <row r="25" ht="15.95" customHeight="1" spans="1:254">
-      <c r="A25" s="3">
-        <v>2002</v>
-      </c>
       <c r="B25" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C25" s="3">
         <v>3</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E25" s="3">
         <v>2</v>
       </c>
-      <c r="IP25" s="4"/>
+      <c r="F25" s="3">
+        <v>2</v>
+      </c>
+      <c r="G25" s="3">
+        <v>6068</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.3</v>
+      </c>
       <c r="IQ25" s="4"/>
       <c r="IR25" s="4"/>
       <c r="IS25" s="4"/>
       <c r="IT25" s="4"/>
-    </row>
-    <row r="26" ht="15.95" customHeight="1" spans="1:254">
+      <c r="IU25" s="4"/>
+    </row>
+    <row r="26" ht="15.95" customHeight="1" spans="1:255">
       <c r="A26" s="3">
-        <v>2003</v>
+        <v>1502</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C26" s="3">
         <v>3</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="IP26" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2</v>
+      </c>
+      <c r="G26" s="3">
+        <v>28676</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0.32</v>
+      </c>
       <c r="IQ26" s="4"/>
       <c r="IR26" s="4"/>
       <c r="IS26" s="4"/>
       <c r="IT26" s="4"/>
-    </row>
-    <row r="27" ht="15.95" customHeight="1" spans="1:254">
+      <c r="IU26" s="4"/>
+    </row>
+    <row r="27" ht="15.95" customHeight="1" spans="1:255">
       <c r="A27" s="3">
-        <v>2004</v>
+        <v>1503</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C27" s="3">
         <v>3</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E27" s="3">
-        <v>3</v>
-      </c>
-      <c r="IP27" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2</v>
+      </c>
+      <c r="G27" s="3">
+        <v>4046</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0.4</v>
+      </c>
       <c r="IQ27" s="4"/>
       <c r="IR27" s="4"/>
       <c r="IS27" s="4"/>
       <c r="IT27" s="4"/>
-    </row>
-    <row r="28" ht="15.95" customHeight="1" spans="1:254">
+      <c r="IU27" s="4"/>
+    </row>
+    <row r="28" ht="15.95" customHeight="1" spans="1:255">
       <c r="A28" s="3">
-        <v>2005</v>
+        <v>1504</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C28" s="3">
         <v>3</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E28" s="3">
         <v>3</v>
       </c>
-      <c r="IP28" s="4"/>
+      <c r="F28" s="3">
+        <v>2</v>
+      </c>
+      <c r="G28" s="3">
+        <v>19334</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0.4</v>
+      </c>
       <c r="IQ28" s="4"/>
       <c r="IR28" s="4"/>
       <c r="IS28" s="4"/>
       <c r="IT28" s="4"/>
-    </row>
-    <row r="29" ht="15.95" customHeight="1" spans="1:254">
+      <c r="IU28" s="4"/>
+    </row>
+    <row r="29" ht="15.95" customHeight="1" spans="1:255">
       <c r="A29" s="3">
-        <v>2501</v>
+        <v>1505</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C29" s="3">
         <v>3</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E29" s="3">
-        <v>3</v>
-      </c>
-      <c r="IP29" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2</v>
+      </c>
+      <c r="G29" s="3">
+        <v>49064</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0.4</v>
+      </c>
       <c r="IQ29" s="4"/>
       <c r="IR29" s="4"/>
       <c r="IS29" s="4"/>
       <c r="IT29" s="4"/>
-    </row>
-    <row r="30" ht="15.95" customHeight="1" spans="1:254">
+      <c r="IU29" s="4"/>
+    </row>
+    <row r="30" ht="15.95" customHeight="1" spans="1:255">
       <c r="A30" s="3">
-        <v>2502</v>
+        <v>2001</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C30" s="3">
         <v>3</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E30" s="3">
-        <v>4</v>
-      </c>
-      <c r="IP30" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3">
+        <v>3848</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0.4</v>
+      </c>
       <c r="IQ30" s="4"/>
       <c r="IR30" s="4"/>
       <c r="IS30" s="4"/>
       <c r="IT30" s="4"/>
-    </row>
-    <row r="31" ht="15.95" customHeight="1" spans="1:254">
+      <c r="IU30" s="4"/>
+    </row>
+    <row r="31" ht="15.95" customHeight="1" spans="1:255">
       <c r="A31" s="3">
-        <v>2503</v>
+        <v>2002</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C31" s="3">
         <v>3</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E31" s="3">
-        <v>5</v>
-      </c>
-      <c r="IP31" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2</v>
+      </c>
+      <c r="G31" s="3">
+        <v>11784</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0.4</v>
+      </c>
       <c r="IQ31" s="4"/>
       <c r="IR31" s="4"/>
       <c r="IS31" s="4"/>
       <c r="IT31" s="4"/>
-    </row>
-    <row r="32" ht="15.95" customHeight="1" spans="1:254">
+      <c r="IU31" s="4"/>
+    </row>
+    <row r="32" ht="15.95" customHeight="1" spans="1:255">
       <c r="A32" s="3">
-        <v>3001</v>
+        <v>2003</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C32" s="3">
         <v>3</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="IP32" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2</v>
+      </c>
+      <c r="G32" s="3">
+        <v>4940</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0.3</v>
+      </c>
       <c r="IQ32" s="4"/>
       <c r="IR32" s="4"/>
       <c r="IS32" s="4"/>
       <c r="IT32" s="4"/>
-    </row>
-    <row r="33" ht="17.1" customHeight="1" spans="1:254">
+      <c r="IU32" s="4"/>
+    </row>
+    <row r="33" ht="15.95" customHeight="1" spans="1:255">
       <c r="A33" s="3">
-        <v>3002</v>
+        <v>2004</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C33" s="3">
         <v>3</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E33" s="3">
         <v>3</v>
       </c>
-      <c r="IP33" s="4"/>
+      <c r="F33" s="3">
+        <v>2</v>
+      </c>
+      <c r="G33" s="3">
+        <v>19304</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0.3</v>
+      </c>
       <c r="IQ33" s="4"/>
       <c r="IR33" s="4"/>
       <c r="IS33" s="4"/>
       <c r="IT33" s="4"/>
-    </row>
-    <row r="34" ht="17.1" customHeight="1" spans="1:254">
+      <c r="IU33" s="4"/>
+    </row>
+    <row r="34" ht="15.95" customHeight="1" spans="1:255">
       <c r="A34" s="3">
-        <v>3003</v>
+        <v>2005</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C34" s="3">
         <v>3</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E34" s="3">
-        <v>2</v>
-      </c>
-      <c r="IP34" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="F34" s="3">
+        <v>2</v>
+      </c>
+      <c r="G34" s="3">
+        <v>15794</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0.3</v>
+      </c>
       <c r="IQ34" s="4"/>
       <c r="IR34" s="4"/>
       <c r="IS34" s="4"/>
       <c r="IT34" s="4"/>
-    </row>
-    <row r="35" ht="17.1" customHeight="1" spans="1:254">
+      <c r="IU34" s="4"/>
+    </row>
+    <row r="35" ht="15.95" customHeight="1" spans="1:255">
       <c r="A35" s="3">
-        <v>3004</v>
+        <v>2501</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C35" s="3">
         <v>3</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E35" s="3">
-        <v>1</v>
-      </c>
-      <c r="IP35" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="F35" s="3">
+        <v>2</v>
+      </c>
+      <c r="G35" s="3">
+        <v>14076</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0.28</v>
+      </c>
       <c r="IQ35" s="4"/>
       <c r="IR35" s="4"/>
       <c r="IS35" s="4"/>
       <c r="IT35" s="4"/>
-    </row>
-    <row r="36" ht="17.1" customHeight="1" spans="1:254">
+      <c r="IU35" s="4"/>
+    </row>
+    <row r="36" ht="15.95" customHeight="1" spans="1:255">
       <c r="A36" s="3">
-        <v>3005</v>
+        <v>2502</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C36" s="3">
         <v>3</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E36" s="3">
-        <v>2</v>
-      </c>
-      <c r="IP36" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="F36" s="3">
+        <v>2</v>
+      </c>
+      <c r="G36" s="3">
+        <v>22438</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0.34</v>
+      </c>
       <c r="IQ36" s="4"/>
       <c r="IR36" s="4"/>
       <c r="IS36" s="4"/>
       <c r="IT36" s="4"/>
-    </row>
-    <row r="37" ht="17.1" customHeight="1" spans="1:254">
+      <c r="IU36" s="4"/>
+    </row>
+    <row r="37" ht="15.95" customHeight="1" spans="1:255">
       <c r="A37" s="3">
-        <v>3006</v>
+        <v>2503</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C37" s="3">
         <v>3</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E37" s="3">
-        <v>2</v>
-      </c>
-      <c r="IP37" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="F37" s="3">
+        <v>2</v>
+      </c>
+      <c r="G37" s="3">
+        <v>46000</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0.3</v>
+      </c>
       <c r="IQ37" s="4"/>
       <c r="IR37" s="4"/>
       <c r="IS37" s="4"/>
       <c r="IT37" s="4"/>
-    </row>
-    <row r="38" ht="17.1" customHeight="1" spans="1:254">
+      <c r="IU37" s="4"/>
+    </row>
+    <row r="38" ht="15.95" customHeight="1" spans="1:255">
       <c r="A38" s="3">
-        <v>3007</v>
+        <v>3001</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C38" s="3">
         <v>3</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E38" s="3">
-        <v>3</v>
-      </c>
-      <c r="IP38" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2</v>
+      </c>
+      <c r="G38" s="3">
+        <v>31956</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0.3</v>
+      </c>
       <c r="IQ38" s="4"/>
       <c r="IR38" s="4"/>
       <c r="IS38" s="4"/>
       <c r="IT38" s="4"/>
-    </row>
-    <row r="39" ht="17.1" customHeight="1" spans="1:254">
+      <c r="IU38" s="4"/>
+    </row>
+    <row r="39" ht="17.1" customHeight="1" spans="1:255">
       <c r="A39" s="3">
-        <v>3501</v>
+        <v>3002</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C39" s="3">
         <v>3</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E39" s="3">
-        <v>2</v>
-      </c>
-      <c r="IP39" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="F39" s="3">
+        <v>2</v>
+      </c>
+      <c r="G39" s="3">
+        <v>19452</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0.3</v>
+      </c>
       <c r="IQ39" s="4"/>
       <c r="IR39" s="4"/>
       <c r="IS39" s="4"/>
       <c r="IT39" s="4"/>
-    </row>
-    <row r="40" ht="17.1" customHeight="1" spans="1:254">
+      <c r="IU39" s="4"/>
+    </row>
+    <row r="40" ht="17.1" customHeight="1" spans="1:255">
       <c r="A40" s="3">
-        <v>3502</v>
+        <v>3003</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C40" s="3">
         <v>3</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E40" s="3">
-        <v>3</v>
-      </c>
-      <c r="IP40" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="F40" s="3">
+        <v>2</v>
+      </c>
+      <c r="G40" s="3">
+        <v>8244</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0.3</v>
+      </c>
       <c r="IQ40" s="4"/>
       <c r="IR40" s="4"/>
       <c r="IS40" s="4"/>
       <c r="IT40" s="4"/>
-    </row>
-    <row r="41" ht="17.1" customHeight="1" spans="1:254">
+      <c r="IU40" s="4"/>
+    </row>
+    <row r="41" ht="17.1" customHeight="1" spans="1:255">
       <c r="A41" s="3">
-        <v>3503</v>
+        <v>3004</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C41" s="3">
         <v>3</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E41" s="3">
-        <v>2</v>
-      </c>
-      <c r="IP41" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="F41" s="3">
+        <v>2</v>
+      </c>
+      <c r="G41" s="3">
+        <v>5368</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0.3</v>
+      </c>
       <c r="IQ41" s="4"/>
       <c r="IR41" s="4"/>
       <c r="IS41" s="4"/>
       <c r="IT41" s="4"/>
-    </row>
-    <row r="42" ht="17.1" customHeight="1" spans="1:254">
+      <c r="IU41" s="4"/>
+    </row>
+    <row r="42" ht="17.1" customHeight="1" spans="1:255">
       <c r="A42" s="3">
-        <v>3504</v>
+        <v>3005</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C42" s="3">
         <v>3</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E42" s="3">
-        <v>3</v>
-      </c>
-      <c r="IP42" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="F42" s="3">
+        <v>2</v>
+      </c>
+      <c r="G42" s="3">
+        <v>10598</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0.3</v>
+      </c>
       <c r="IQ42" s="4"/>
       <c r="IR42" s="4"/>
       <c r="IS42" s="4"/>
       <c r="IT42" s="4"/>
-    </row>
-    <row r="43" ht="17.1" customHeight="1" spans="1:254">
+      <c r="IU42" s="4"/>
+    </row>
+    <row r="43" ht="17.1" customHeight="1" spans="1:255">
       <c r="A43" s="3">
-        <v>3505</v>
+        <v>3006</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C43" s="3">
         <v>3</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E43" s="3">
-        <v>3</v>
-      </c>
-      <c r="IP43" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="F43" s="3">
+        <v>2</v>
+      </c>
+      <c r="G43" s="3">
+        <v>7280</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0.3</v>
+      </c>
       <c r="IQ43" s="4"/>
       <c r="IR43" s="4"/>
       <c r="IS43" s="4"/>
       <c r="IT43" s="4"/>
-    </row>
-    <row r="44" ht="17.1" customHeight="1" spans="1:254">
+      <c r="IU43" s="4"/>
+    </row>
+    <row r="44" ht="17.1" customHeight="1" spans="1:255">
       <c r="A44" s="3">
-        <v>3506</v>
+        <v>3007</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C44" s="3">
         <v>3</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E44" s="3">
-        <v>4</v>
-      </c>
-      <c r="IP44" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2</v>
+      </c>
+      <c r="G44" s="3">
+        <v>21142</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0.3</v>
+      </c>
       <c r="IQ44" s="4"/>
       <c r="IR44" s="4"/>
       <c r="IS44" s="4"/>
       <c r="IT44" s="4"/>
-    </row>
-    <row r="45" ht="17.1" customHeight="1" spans="1:254">
+      <c r="IU44" s="4"/>
+    </row>
+    <row r="45" ht="17.1" customHeight="1" spans="1:255">
       <c r="A45" s="3">
-        <v>4001</v>
+        <v>3501</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C45" s="3">
         <v>3</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E45" s="3">
-        <v>5</v>
-      </c>
-      <c r="IP45" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2</v>
+      </c>
+      <c r="G45" s="3">
+        <v>3958</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0.6</v>
+      </c>
       <c r="IQ45" s="4"/>
       <c r="IR45" s="4"/>
       <c r="IS45" s="4"/>
       <c r="IT45" s="4"/>
-    </row>
-    <row r="46" ht="17.1" customHeight="1" spans="1:254">
+      <c r="IU45" s="4"/>
+    </row>
+    <row r="46" ht="17.1" customHeight="1" spans="1:255">
       <c r="A46" s="3">
-        <v>4002</v>
+        <v>3502</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C46" s="3">
         <v>3</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E46" s="3">
         <v>3</v>
       </c>
-      <c r="IP46" s="4"/>
+      <c r="F46" s="3">
+        <v>2</v>
+      </c>
+      <c r="G46" s="3">
+        <v>12396</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0.5</v>
+      </c>
       <c r="IQ46" s="4"/>
       <c r="IR46" s="4"/>
       <c r="IS46" s="4"/>
       <c r="IT46" s="4"/>
-    </row>
-    <row r="47" ht="17.1" customHeight="1" spans="1:254">
+      <c r="IU46" s="4"/>
+    </row>
+    <row r="47" ht="17.1" customHeight="1" spans="1:255">
       <c r="A47" s="3">
-        <v>5001</v>
+        <v>3503</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C47" s="3">
         <v>3</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E47" s="3">
         <v>2</v>
       </c>
-      <c r="IP47" s="4"/>
+      <c r="F47" s="3">
+        <v>2</v>
+      </c>
+      <c r="G47" s="3">
+        <v>4838</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0.4</v>
+      </c>
       <c r="IQ47" s="4"/>
       <c r="IR47" s="4"/>
       <c r="IS47" s="4"/>
       <c r="IT47" s="4"/>
-    </row>
-    <row r="48" ht="17.1" customHeight="1" spans="1:254">
+      <c r="IU47" s="4"/>
+    </row>
+    <row r="48" ht="17.1" customHeight="1" spans="1:255">
       <c r="A48" s="3">
-        <v>5002</v>
+        <v>3504</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C48" s="3">
         <v>3</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E48" s="3">
-        <v>5</v>
-      </c>
-      <c r="IP48" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2</v>
+      </c>
+      <c r="G48" s="3">
+        <v>14604</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0.4</v>
+      </c>
       <c r="IQ48" s="4"/>
       <c r="IR48" s="4"/>
       <c r="IS48" s="4"/>
       <c r="IT48" s="4"/>
-    </row>
-    <row r="49" ht="17.1" customHeight="1" spans="1:254">
+      <c r="IU48" s="4"/>
+    </row>
+    <row r="49" ht="17.1" customHeight="1" spans="1:255">
       <c r="A49" s="3">
-        <v>5003</v>
+        <v>3505</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C49" s="3">
         <v>3</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E49" s="3">
         <v>3</v>
       </c>
-      <c r="IP49" s="4"/>
+      <c r="F49" s="3">
+        <v>2</v>
+      </c>
+      <c r="G49" s="3">
+        <v>13246</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0.4</v>
+      </c>
       <c r="IQ49" s="4"/>
       <c r="IR49" s="4"/>
       <c r="IS49" s="4"/>
       <c r="IT49" s="4"/>
-    </row>
-    <row r="50" ht="17.1" customHeight="1" spans="1:254">
+      <c r="IU49" s="4"/>
+    </row>
+    <row r="50" ht="17.1" customHeight="1" spans="1:255">
       <c r="A50" s="3">
-        <v>5004</v>
+        <v>3506</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C50" s="3">
         <v>3</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E50" s="3">
-        <v>5</v>
-      </c>
-      <c r="IP50" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="F50" s="3">
+        <v>2</v>
+      </c>
+      <c r="G50" s="3">
+        <v>24376</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50" s="3">
+        <v>0.4</v>
+      </c>
       <c r="IQ50" s="4"/>
       <c r="IR50" s="4"/>
       <c r="IS50" s="4"/>
       <c r="IT50" s="4"/>
-    </row>
-    <row r="51" ht="17.1" customHeight="1" spans="1:254">
+      <c r="IU50" s="4"/>
+    </row>
+    <row r="51" ht="17.1" customHeight="1" spans="1:255">
       <c r="A51" s="3">
-        <v>6501</v>
+        <v>4001</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C51" s="3">
         <v>3</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E51" s="3">
-        <v>0</v>
-      </c>
-      <c r="IP51" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="F51" s="3">
+        <v>2</v>
+      </c>
+      <c r="G51" s="3">
+        <v>46932</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I51" s="3">
+        <v>0.4</v>
+      </c>
       <c r="IQ51" s="4"/>
       <c r="IR51" s="4"/>
       <c r="IS51" s="4"/>
       <c r="IT51" s="4"/>
-    </row>
-    <row r="52" ht="17.1" customHeight="1" spans="1:254">
+      <c r="IU51" s="4"/>
+    </row>
+    <row r="52" ht="17.1" customHeight="1" spans="1:255">
       <c r="A52" s="3">
-        <v>6502</v>
+        <v>4002</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C52" s="3">
         <v>3</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="IP52" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="F52" s="3">
+        <v>2</v>
+      </c>
+      <c r="G52" s="3">
+        <v>21070</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0.4</v>
+      </c>
       <c r="IQ52" s="4"/>
       <c r="IR52" s="4"/>
       <c r="IS52" s="4"/>
       <c r="IT52" s="4"/>
-    </row>
-    <row r="53" ht="17.1" customHeight="1" spans="1:254">
+      <c r="IU52" s="4"/>
+    </row>
+    <row r="53" ht="17.1" customHeight="1" spans="1:255">
       <c r="A53" s="3">
-        <v>6503</v>
+        <v>5001</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C53" s="3">
         <v>3</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E53" s="3">
-        <v>4</v>
-      </c>
-      <c r="IP53" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="F53" s="3">
+        <v>2</v>
+      </c>
+      <c r="G53" s="3">
+        <v>6022</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I53" s="3">
+        <v>0.6</v>
+      </c>
       <c r="IQ53" s="4"/>
       <c r="IR53" s="4"/>
       <c r="IS53" s="4"/>
       <c r="IT53" s="4"/>
-    </row>
-    <row r="54" ht="17.1" customHeight="1" spans="1:254">
+      <c r="IU53" s="4"/>
+    </row>
+    <row r="54" ht="17.1" customHeight="1" spans="1:255">
       <c r="A54" s="3">
-        <v>6504</v>
+        <v>5002</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C54" s="3">
         <v>3</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E54" s="3">
-        <v>4</v>
-      </c>
-      <c r="IP54" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="F54" s="3">
+        <v>2</v>
+      </c>
+      <c r="G54" s="3">
+        <v>106000</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0.7</v>
+      </c>
       <c r="IQ54" s="4"/>
       <c r="IR54" s="4"/>
       <c r="IS54" s="4"/>
       <c r="IT54" s="4"/>
-    </row>
-    <row r="55" ht="17.1" customHeight="1" spans="1:254">
+      <c r="IU54" s="4"/>
+    </row>
+    <row r="55" ht="17.1" customHeight="1" spans="1:255">
       <c r="A55" s="3">
-        <v>6505</v>
+        <v>5003</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C55" s="3">
         <v>3</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="E55" s="3">
-        <v>0</v>
-      </c>
-      <c r="IP55" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="F55" s="3">
+        <v>2</v>
+      </c>
+      <c r="G55" s="3">
+        <v>19046</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I55" s="3">
+        <v>0.6</v>
+      </c>
       <c r="IQ55" s="4"/>
       <c r="IR55" s="4"/>
       <c r="IS55" s="4"/>
       <c r="IT55" s="4"/>
-    </row>
-    <row r="56" ht="17.1" customHeight="1" spans="1:254">
+      <c r="IU55" s="4"/>
+    </row>
+    <row r="56" ht="17.1" customHeight="1" spans="1:255">
       <c r="A56" s="3">
-        <v>7001</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>119</v>
+        <v>5004</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="C56" s="3">
-        <v>4</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>120</v>
+        <v>3</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="E56" s="3">
-        <v>4</v>
-      </c>
-      <c r="IP56" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="F56" s="3">
+        <v>2</v>
+      </c>
+      <c r="G56" s="3">
+        <v>12798</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I56" s="3">
+        <v>0.4</v>
+      </c>
       <c r="IQ56" s="4"/>
       <c r="IR56" s="4"/>
       <c r="IS56" s="4"/>
       <c r="IT56" s="4"/>
-    </row>
-    <row r="57" ht="17.1" customHeight="1" spans="1:254">
+      <c r="IU56" s="4"/>
+    </row>
+    <row r="57" ht="17.1" customHeight="1" spans="1:255">
       <c r="A57" s="3">
-        <v>7002</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>121</v>
+        <v>6501</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="C57" s="3">
-        <v>4</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>122</v>
+        <v>3</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="E57" s="3">
-        <v>4</v>
-      </c>
-      <c r="IP57" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>2</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0.4</v>
+      </c>
       <c r="IQ57" s="4"/>
       <c r="IR57" s="4"/>
       <c r="IS57" s="4"/>
       <c r="IT57" s="4"/>
-    </row>
-    <row r="58" ht="17.1" customHeight="1" spans="1:254">
+      <c r="IU57" s="4"/>
+    </row>
+    <row r="58" ht="17.1" customHeight="1" spans="1:255">
       <c r="A58" s="3">
-        <v>7501</v>
+        <v>6502</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C58" s="3">
-        <v>4</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>124</v>
+        <v>3</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="E58" s="3">
-        <v>5</v>
-      </c>
-      <c r="IP58" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>2</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0.4</v>
+      </c>
       <c r="IQ58" s="4"/>
       <c r="IR58" s="4"/>
       <c r="IS58" s="4"/>
       <c r="IT58" s="4"/>
-    </row>
-    <row r="59" ht="17.1" customHeight="1" spans="1:254">
+      <c r="IU58" s="4"/>
+    </row>
+    <row r="59" ht="17.1" customHeight="1" spans="1:255">
       <c r="A59" s="3">
-        <v>7502</v>
+        <v>6503</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C59" s="3">
+        <v>3</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E59" s="3">
         <v>4</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E59" s="3">
-        <v>5</v>
-      </c>
-      <c r="IP59" s="4"/>
+      <c r="F59" s="3">
+        <v>2</v>
+      </c>
+      <c r="G59" s="3">
+        <v>73266</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0.4</v>
+      </c>
       <c r="IQ59" s="4"/>
       <c r="IR59" s="4"/>
       <c r="IS59" s="4"/>
       <c r="IT59" s="4"/>
-    </row>
-    <row r="60" ht="17.1" customHeight="1" spans="1:254">
+      <c r="IU59" s="4"/>
+    </row>
+    <row r="60" ht="17.1" customHeight="1" spans="1:255">
       <c r="A60" s="3">
-        <v>7503</v>
+        <v>6504</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C60" s="3">
+        <v>3</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E60" s="3">
         <v>4</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E60" s="3">
-        <v>5</v>
-      </c>
-      <c r="IP60" s="4"/>
+      <c r="F60" s="3">
+        <v>2</v>
+      </c>
+      <c r="G60" s="3">
+        <v>50370</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I60" s="3">
+        <v>0.4</v>
+      </c>
       <c r="IQ60" s="4"/>
       <c r="IR60" s="4"/>
       <c r="IS60" s="4"/>
       <c r="IT60" s="4"/>
-    </row>
-    <row r="61" ht="17.1" customHeight="1" spans="1:254">
+      <c r="IU60" s="4"/>
+    </row>
+    <row r="61" ht="17.1" customHeight="1" spans="1:255">
       <c r="A61" s="3">
-        <v>7504</v>
+        <v>6505</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C61" s="3">
-        <v>4</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>126</v>
+        <v>3</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="E61" s="3">
-        <v>5</v>
-      </c>
-      <c r="IP61" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>2</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0.4</v>
+      </c>
       <c r="IQ61" s="4"/>
       <c r="IR61" s="4"/>
       <c r="IS61" s="4"/>
       <c r="IT61" s="4"/>
-    </row>
-    <row r="62" ht="17.1" customHeight="1" spans="1:254">
+      <c r="IU61" s="4"/>
+    </row>
+    <row r="62" ht="17.1" customHeight="1" spans="1:255">
       <c r="A62" s="3">
-        <v>7505</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>125</v>
+        <v>7001</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="C62" s="3">
         <v>4</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E62" s="3">
-        <v>5</v>
-      </c>
-      <c r="IP62" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="F62" s="3">
+        <v>2</v>
+      </c>
+      <c r="G62" s="3">
+        <v>750000</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0.4</v>
+      </c>
       <c r="IQ62" s="4"/>
       <c r="IR62" s="4"/>
       <c r="IS62" s="4"/>
       <c r="IT62" s="4"/>
-    </row>
-    <row r="63" ht="17.1" customHeight="1" spans="1:254">
+      <c r="IU62" s="4"/>
+    </row>
+    <row r="63" ht="17.1" customHeight="1" spans="1:255">
       <c r="A63" s="3">
-        <v>7506</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>125</v>
+        <v>7002</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="C63" s="3">
         <v>4</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E63" s="3">
-        <v>5</v>
-      </c>
-      <c r="IP63" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="F63" s="3">
+        <v>2</v>
+      </c>
+      <c r="G63" s="3">
+        <v>1050000</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I63" s="3">
+        <v>0.4</v>
+      </c>
       <c r="IQ63" s="4"/>
       <c r="IR63" s="4"/>
       <c r="IS63" s="4"/>
       <c r="IT63" s="4"/>
-    </row>
-    <row r="64" ht="17.1" customHeight="1" spans="1:254">
+      <c r="IU63" s="4"/>
+    </row>
+    <row r="64" ht="17.1" customHeight="1" spans="1:255">
       <c r="A64" s="3">
-        <v>7507</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>125</v>
+        <v>7003</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="C64" s="3">
         <v>4</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="E64" s="3">
-        <v>5</v>
-      </c>
-      <c r="IP64" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="F64" s="3">
+        <v>2</v>
+      </c>
+      <c r="G64" s="3">
+        <v>200000</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I64" s="3">
+        <v>0.4</v>
+      </c>
       <c r="IQ64" s="4"/>
       <c r="IR64" s="4"/>
       <c r="IS64" s="4"/>
       <c r="IT64" s="4"/>
-    </row>
-    <row r="65" ht="17.1" customHeight="1" spans="1:254">
+      <c r="IU64" s="4"/>
+    </row>
+    <row r="65" ht="17.1" customHeight="1" spans="1:255">
       <c r="A65" s="3">
-        <v>7508</v>
+        <v>7501</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C65" s="3">
         <v>4</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E65" s="3">
         <v>5</v>
       </c>
-      <c r="IP65" s="4"/>
+      <c r="F65" s="3">
+        <v>2</v>
+      </c>
+      <c r="G65" s="3">
+        <v>980000</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I65" s="3">
+        <v>0.4</v>
+      </c>
       <c r="IQ65" s="4"/>
       <c r="IR65" s="4"/>
       <c r="IS65" s="4"/>
       <c r="IT65" s="4"/>
-    </row>
-    <row r="66" ht="17.1" customHeight="1" spans="1:254">
+      <c r="IU65" s="4"/>
+    </row>
+    <row r="66" ht="17.1" customHeight="1" spans="1:255">
       <c r="A66" s="3">
-        <v>7509</v>
+        <v>7502</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C66" s="3">
         <v>4</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="E66" s="3">
         <v>5</v>
       </c>
-      <c r="IP66" s="4"/>
+      <c r="F66" s="3">
+        <v>2</v>
+      </c>
+      <c r="G66" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I66" s="3">
+        <v>0.4</v>
+      </c>
       <c r="IQ66" s="4"/>
       <c r="IR66" s="4"/>
       <c r="IS66" s="4"/>
       <c r="IT66" s="4"/>
-    </row>
-    <row r="67" ht="17.1" customHeight="1" spans="1:254">
+      <c r="IU66" s="4"/>
+    </row>
+    <row r="67" ht="17.1" customHeight="1" spans="1:255">
       <c r="A67" s="3">
-        <v>7510</v>
+        <v>7503</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="C67" s="3">
         <v>4</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="E67" s="3">
-        <v>5</v>
-      </c>
-      <c r="IP67" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="F67" s="3">
+        <v>2</v>
+      </c>
+      <c r="G67" s="3">
+        <v>20000</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I67" s="3">
+        <v>0.4</v>
+      </c>
       <c r="IQ67" s="4"/>
       <c r="IR67" s="4"/>
       <c r="IS67" s="4"/>
       <c r="IT67" s="4"/>
-    </row>
-    <row r="68" ht="17.1" customHeight="1" spans="1:254">
+      <c r="IU67" s="4"/>
+    </row>
+    <row r="68" ht="17.1" customHeight="1" spans="1:255">
       <c r="A68" s="3">
         <v>8001</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="C68" s="3">
         <v>4</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="E68" s="3">
         <v>4</v>
       </c>
-      <c r="IP68" s="4"/>
+      <c r="F68" s="3">
+        <v>2</v>
+      </c>
+      <c r="G68" s="3">
+        <v>1375000</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I68" s="3">
+        <v>0.4</v>
+      </c>
       <c r="IQ68" s="4"/>
       <c r="IR68" s="4"/>
       <c r="IS68" s="4"/>
       <c r="IT68" s="4"/>
-    </row>
-    <row r="69" ht="17.1" customHeight="1" spans="1:254">
+      <c r="IU68" s="4"/>
+    </row>
+    <row r="69" ht="17.1" customHeight="1" spans="1:255">
       <c r="A69" s="3">
         <v>8002</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="C69" s="3">
         <v>4</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="E69" s="3">
         <v>4</v>
       </c>
-      <c r="IP69" s="4"/>
+      <c r="F69" s="3">
+        <v>2</v>
+      </c>
+      <c r="G69" s="3">
+        <v>3000000</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I69" s="3">
+        <v>0.4</v>
+      </c>
       <c r="IQ69" s="4"/>
       <c r="IR69" s="4"/>
       <c r="IS69" s="4"/>
       <c r="IT69" s="4"/>
-    </row>
-    <row r="70" ht="17.1" customHeight="1" spans="250:254">
-      <c r="IP70" s="4"/>
+      <c r="IU69" s="4"/>
+    </row>
+    <row r="70" ht="17.1" customHeight="1" spans="1:255">
+      <c r="A70" s="3">
+        <v>8003</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70" s="3">
+        <v>4</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E70" s="3">
+        <v>2</v>
+      </c>
+      <c r="F70" s="3">
+        <v>2</v>
+      </c>
+      <c r="G70" s="3">
+        <v>30000</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0.5</v>
+      </c>
       <c r="IQ70" s="4"/>
       <c r="IR70" s="4"/>
       <c r="IS70" s="4"/>
       <c r="IT70" s="4"/>
-    </row>
-    <row r="71" ht="17.1" customHeight="1" spans="250:254">
-      <c r="IP71" s="4"/>
+      <c r="IU70" s="4"/>
+    </row>
+    <row r="71" ht="17.1" customHeight="1" spans="251:255">
       <c r="IQ71" s="4"/>
       <c r="IR71" s="4"/>
       <c r="IS71" s="4"/>
       <c r="IT71" s="4"/>
+      <c r="IU71" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="id组定义" prompt="1-500:货币数据等； 501-1000：发型；&#10;1001-1500：连衣裙  1501-2000：上衣；&#10;2001-2500：下装；  2501-3000：袜子；&#10;3001-3500：鞋子；  3501-4000：饰品；&#10;4001-4500：耳饰；  4501-5000：颈饰；&#10;5001-5500：手饰；  5501-6000：腰饰&#10;6001-6500：腿饰；  6501-7000：特殊；&#10;7001-7500：别墅；  7501-8000：豪车；&#10;8001-8500：游艇；" sqref="A55 A58 A1:A29 A30:A31 A32:A54 A56:A57 A59:A60 A61:A67 A68:A1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="id组定义" prompt="1-500:货币数据等； 501-1000：发型；&#10;1001-1500：连衣裙  1501-2000：上衣；&#10;2001-2500：下装；  2501-3000：袜子；&#10;3001-3500：鞋子；  3501-4000：饰品；&#10;4001-4500：耳饰；  4501-5000：颈饰；&#10;5001-5500：手饰；  5501-6000：腰饰&#10;6001-6500：腿饰；  6501-7000：特殊；&#10;7001-7500：别墅；  7501-8000：豪车；&#10;8001-8500：游艇；" sqref="A11 A12 A61 A64 A65 A66 A67 A1:A6 A7:A10 A13:A35 A36:A37 A38:A60 A62:A63 A68:A1048576"/>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
